--- a/special_practice/training.xlsx
+++ b/special_practice/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{941C8313-E7D7-47C2-858B-7235F3474B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815232C-6A5B-4187-84BA-50E61A7D0555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FD92945-694B-4023-BEC0-AC0C3F371F0C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Bible Passage</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>2:00pm - 5:00pm</t>
   </si>
 </sst>
 </file>
@@ -92,10 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6EDE61-B642-40B6-A48A-968538ADB09D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,9 +447,10 @@
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,19 +463,25 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45818</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/special_practice/training.xlsx
+++ b/special_practice/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815232C-6A5B-4187-84BA-50E61A7D0555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A137CF-3038-4B98-B656-9C2BABDEBF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FD92945-694B-4023-BEC0-AC0C3F371F0C}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45818</v>
+        <v>45816</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/special_practice/training.xlsx
+++ b/special_practice/training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A137CF-3038-4B98-B656-9C2BABDEBF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0802DA-F018-4E35-8F69-DC97F3A00FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FD92945-694B-4023-BEC0-AC0C3F371F0C}"/>
   </bookViews>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45816</v>
+        <v>45830</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
